--- a/economic/risk/economic_parameters_full.xlsx
+++ b/economic/risk/economic_parameters_full.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennonthomas/Desktop/Carib_aqua_16/economic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennonthomas/Desktop/Carib_aqua_16/economic/risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="2440" windowWidth="25360" windowHeight="18620" tabRatio="500"/>
+    <workbookView xWindow="10380" yWindow="2440" windowWidth="40820" windowHeight="18620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>Island Country EEZ</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Trade as % GDP</t>
   </si>
   <si>
-    <t>CPI Growth</t>
-  </si>
-  <si>
     <t>GDP growth</t>
   </si>
   <si>
@@ -298,6 +295,12 @@
   </si>
   <si>
     <t>http://www.theglobaleconomy.com/Saint-Vincent-and-the-Grenadines/</t>
+  </si>
+  <si>
+    <t>CPI Growth higher is good</t>
+  </si>
+  <si>
+    <t>higher is good</t>
   </si>
 </sst>
 </file>
@@ -603,22 +606,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,15 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -710,6 +692,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T36"/>
+  <dimension ref="A2:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,35 +1006,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-    </row>
-    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="C2" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1046,7 +1049,7 @@
       <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="49" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1061,46 +1064,46 @@
       <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="53" t="s">
         <v>72</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>73</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="R3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="T3" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4">
         <v>21382</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="57"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="6">
         <v>0.89</v>
       </c>
@@ -1113,8 +1116,8 @@
       <c r="L4" s="9">
         <v>85.45</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="61"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="54"/>
       <c r="O4">
         <v>-13.29</v>
       </c>
@@ -1124,22 +1127,22 @@
       <c r="Q4">
         <v>2.4500000000000002</v>
       </c>
-      <c r="S4" s="51">
+      <c r="S4" s="44">
         <v>15000</v>
       </c>
-      <c r="T4" s="51">
+      <c r="T4" s="44">
         <v>0.311</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>15</v>
+      <c r="A5" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="42"/>
+        <v>77</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4">
         <v>14253</v>
@@ -1147,7 +1150,7 @@
       <c r="G5" s="5">
         <v>31</v>
       </c>
-      <c r="H5" s="57"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="6">
         <v>0.53</v>
       </c>
@@ -1160,8 +1163,8 @@
       <c r="L5" s="9">
         <v>154.06</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="61"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="54"/>
       <c r="O5">
         <v>-14.83</v>
       </c>
@@ -1171,28 +1174,28 @@
       <c r="Q5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="44">
         <v>93581</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="44">
         <v>2.1709999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>16</v>
+      <c r="A6" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4">
         <v>26406</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="57"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="6">
         <v>1.38</v>
       </c>
@@ -1205,10 +1208,10 @@
       <c r="L6" s="9">
         <v>-22.57</v>
       </c>
-      <c r="M6" s="54">
+      <c r="M6" s="47">
         <v>-0.3</v>
       </c>
-      <c r="N6" s="61"/>
+      <c r="N6" s="54"/>
       <c r="O6">
         <v>17.29</v>
       </c>
@@ -1218,24 +1221,24 @@
       <c r="Q6">
         <v>2.5</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="44">
         <v>113648</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="44">
         <v>2.516</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="27">
+      <c r="A7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="23">
         <v>50</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="3">
         <v>66</v>
       </c>
@@ -1245,7 +1248,7 @@
       <c r="G7" s="5">
         <v>82</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="50">
         <v>77</v>
       </c>
       <c r="I7" s="6">
@@ -1260,10 +1263,10 @@
       <c r="L7" s="9">
         <v>384.91</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="47">
         <v>0.8</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="54">
         <v>121</v>
       </c>
       <c r="O7">
@@ -1275,24 +1278,24 @@
       <c r="Q7">
         <v>-1.7</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="45">
         <v>327316</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="45">
         <v>9.0660000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="A8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="23">
         <v>75</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="3">
         <v>61</v>
       </c>
@@ -1302,7 +1305,7 @@
       <c r="G8" s="5">
         <v>80</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="50">
         <v>83.7</v>
       </c>
       <c r="I8" s="6">
@@ -1317,10 +1320,10 @@
       <c r="L8" s="9">
         <v>254.52</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="47">
         <v>-0.5</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="54">
         <v>117</v>
       </c>
       <c r="O8">
@@ -1332,92 +1335,92 @@
       <c r="Q8">
         <v>0.8</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="45">
         <v>291495</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="45">
         <v>4.8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>19</v>
+      <c r="A9" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4">
         <v>21000</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="6"/>
       <c r="J9" s="11"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="61"/>
-      <c r="S9" s="51">
+      <c r="M9" s="47"/>
+      <c r="N9" s="54"/>
+      <c r="S9" s="44">
         <v>18659</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="44">
         <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="3"/>
       <c r="F10" s="10">
         <v>30880</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="57"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
         <v>51605</v>
       </c>
-      <c r="M10" s="54"/>
-      <c r="N10" s="61"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="54"/>
       <c r="P10">
         <v>0.84</v>
       </c>
       <c r="Q10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="45">
         <v>34232</v>
       </c>
-      <c r="T10" s="52">
+      <c r="T10" s="45">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="10">
         <v>57458</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="57"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="6">
         <v>0.82</v>
       </c>
@@ -1430,32 +1433,32 @@
       <c r="L11" s="9">
         <v>18987.38</v>
       </c>
-      <c r="M11" s="54"/>
-      <c r="N11" s="61"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="54"/>
       <c r="P11">
         <v>-2.93</v>
       </c>
       <c r="Q11">
         <v>2</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="45">
         <v>57268</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="45">
         <v>2.5070000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="A12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="23">
         <v>10</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3">
         <v>47</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>7929</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="57">
+      <c r="H12" s="50">
         <v>66</v>
       </c>
       <c r="I12" s="6">
@@ -1476,10 +1479,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="54">
+      <c r="M12" s="47">
         <v>4.5</v>
       </c>
-      <c r="N12" s="61"/>
+      <c r="N12" s="54"/>
       <c r="O12">
         <v>3.03</v>
       </c>
@@ -1489,36 +1492,36 @@
       <c r="Q12">
         <v>4.3</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="45">
         <v>11179995</v>
       </c>
-      <c r="T12" s="52">
+      <c r="T12" s="45">
         <v>128.5</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3"/>
       <c r="F13" s="10">
         <v>19869</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="57"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="6"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
         <v>175.14</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="61"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="54"/>
       <c r="O13">
         <v>-1761</v>
       </c>
@@ -1531,24 +1534,24 @@
       <c r="R13">
         <v>-13.8</v>
       </c>
-      <c r="S13" s="52">
+      <c r="S13" s="45">
         <v>149035</v>
       </c>
-      <c r="T13" s="52">
+      <c r="T13" s="45">
         <v>3.1280000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="A14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="23">
         <v>75</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3">
         <v>59</v>
       </c>
@@ -1558,7 +1561,7 @@
       <c r="G14" s="5">
         <v>32</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="50">
         <v>89.5</v>
       </c>
       <c r="I14" s="6">
@@ -1573,8 +1576,8 @@
       <c r="L14" s="9">
         <v>35.96</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="61">
+      <c r="M14" s="47"/>
+      <c r="N14" s="54">
         <v>101</v>
       </c>
       <c r="O14">
@@ -1589,24 +1592,24 @@
       <c r="R14">
         <v>-16.100000000000001</v>
       </c>
-      <c r="S14" s="52">
+      <c r="S14" s="45">
         <v>73757</v>
       </c>
-      <c r="T14" s="52">
+      <c r="T14" s="45">
         <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="27">
+      <c r="A15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="23">
         <v>75</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="38">
         <v>3</v>
       </c>
       <c r="E15" s="3">
@@ -1618,7 +1621,7 @@
       <c r="G15" s="5">
         <v>98</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="50">
         <v>76.7</v>
       </c>
       <c r="I15" s="6">
@@ -1633,10 +1636,10 @@
       <c r="L15" s="9">
         <v>2221.5</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="47">
         <v>3.34</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="54">
         <v>103</v>
       </c>
       <c r="O15">
@@ -1651,22 +1654,22 @@
       <c r="R15">
         <v>-4</v>
       </c>
-      <c r="S15" s="52">
+      <c r="S15" s="45">
         <v>10606865</v>
       </c>
-      <c r="T15" s="52">
+      <c r="T15" s="45">
         <v>160.9</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="3">
         <v>56</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>8610</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="57"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="6">
         <v>0.01</v>
       </c>
@@ -1687,8 +1690,8 @@
       <c r="L16" s="9">
         <v>60.67</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="61"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="54"/>
       <c r="O16">
         <v>-16.170000000000002</v>
       </c>
@@ -1701,52 +1704,52 @@
       <c r="R16">
         <v>-8.6</v>
       </c>
-      <c r="S16" s="52">
+      <c r="S16" s="45">
         <v>111219</v>
       </c>
-      <c r="T16" s="52">
+      <c r="T16" s="45">
         <v>1.5109999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="3"/>
       <c r="F17" s="10">
         <v>21780</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="57"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="61"/>
-      <c r="S17" s="52">
+      <c r="M17" s="47"/>
+      <c r="N17" s="54"/>
+      <c r="S17" s="45">
         <v>402119</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="45">
         <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="27">
+      <c r="A18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="23">
         <v>40</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="38">
         <v>3</v>
       </c>
       <c r="E18" s="3">
@@ -1758,7 +1761,7 @@
       <c r="G18" s="9">
         <v>17</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="50">
         <v>73.8</v>
       </c>
       <c r="I18" s="6">
@@ -1773,10 +1776,10 @@
       <c r="L18" s="9">
         <v>104.2</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="47">
         <v>13.9</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18" s="54">
         <v>181</v>
       </c>
       <c r="O18">
@@ -1791,24 +1794,24 @@
       <c r="R18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="S18" s="52">
+      <c r="S18" s="45">
         <v>10485800</v>
       </c>
-      <c r="T18" s="52">
+      <c r="T18" s="45">
         <v>19.36</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="27">
+      <c r="A19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="23">
         <v>80</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="38">
         <v>3</v>
       </c>
       <c r="E19" s="3"/>
@@ -1818,7 +1821,7 @@
       <c r="G19" s="9">
         <v>89</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="50">
         <v>79.5</v>
       </c>
       <c r="I19" s="6">
@@ -1833,10 +1836,10 @@
       <c r="L19" s="9">
         <v>794.48</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="47">
         <v>3.6</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="54">
         <v>67</v>
       </c>
       <c r="O19">
@@ -1851,22 +1854,22 @@
       <c r="R19">
         <v>-13.1</v>
       </c>
-      <c r="S19" s="52">
+      <c r="S19" s="45">
         <v>2970340</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="45">
         <v>25.39</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="3">
         <v>39</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>24118</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="6">
         <v>1.25</v>
       </c>
@@ -1885,38 +1888,38 @@
         <v>1.25</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="61"/>
-      <c r="S20" s="52">
+      <c r="M20" s="47"/>
+      <c r="N20" s="54"/>
+      <c r="S20" s="45">
         <v>385552</v>
       </c>
-      <c r="T20" s="52">
+      <c r="T20" s="45">
         <v>10.7</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="3"/>
       <c r="F21" s="10">
         <v>12407</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="57"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="61"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="54"/>
       <c r="O21">
         <v>-52.23</v>
       </c>
@@ -1929,28 +1932,28 @@
       <c r="R21">
         <v>-11.8</v>
       </c>
-      <c r="S21" s="52">
+      <c r="S21" s="45">
         <v>5267</v>
       </c>
-      <c r="T21" s="52">
+      <c r="T21" s="45">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="3"/>
       <c r="F22" s="10">
         <v>15900</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="57"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="6">
         <v>0.98</v>
       </c>
@@ -1963,58 +1966,58 @@
       <c r="L22" s="9">
         <v>78.16</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="61"/>
-      <c r="S22" s="52">
+      <c r="M22" s="47"/>
+      <c r="N22" s="54"/>
+      <c r="S22" s="45">
         <v>3578056</v>
       </c>
-      <c r="T22" s="52">
+      <c r="T22" s="45">
         <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>33</v>
+      <c r="A23" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <v>23600</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="58"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="6"/>
       <c r="J23" s="11"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="61"/>
-      <c r="S23" s="51">
+      <c r="M23" s="47"/>
+      <c r="N23" s="54"/>
+      <c r="S23" s="44">
         <v>1920</v>
       </c>
-      <c r="T23" s="51">
+      <c r="T23" s="44">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="3"/>
       <c r="F24" s="10">
         <v>15645</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="57"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="6">
         <v>0.17</v>
       </c>
@@ -2027,8 +2030,8 @@
       <c r="L24" s="9">
         <v>75.67</v>
       </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="61"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="54"/>
       <c r="O24">
         <v>-9.81</v>
       </c>
@@ -2041,24 +2044,24 @@
       <c r="R24">
         <v>-4.2</v>
       </c>
-      <c r="S24" s="52">
+      <c r="S24" s="45">
         <v>52329</v>
       </c>
-      <c r="T24" s="52">
+      <c r="T24" s="45">
         <v>1.427</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="27">
+      <c r="A25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="23">
         <v>65</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="3">
         <v>60</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>7761</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="57">
+      <c r="H25" s="50">
         <v>82.3</v>
       </c>
       <c r="I25" s="6">
@@ -2081,10 +2084,10 @@
       <c r="L25" s="9">
         <v>95.03</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M25" s="47">
         <v>-0.98</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="54"/>
       <c r="O25">
         <v>-1.37</v>
       </c>
@@ -2097,24 +2100,24 @@
       <c r="R25">
         <v>11.6</v>
       </c>
-      <c r="S25" s="52">
+      <c r="S25" s="45">
         <v>164464</v>
       </c>
-      <c r="T25" s="52">
+      <c r="T25" s="45">
         <v>2.0830000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="27">
+      <c r="A26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="23">
         <v>75</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="3">
         <v>60</v>
       </c>
@@ -2124,7 +2127,7 @@
       <c r="G26" s="9">
         <v>28</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="50">
         <v>82.9</v>
       </c>
       <c r="I26" s="6"/>
@@ -2133,10 +2136,10 @@
       <c r="L26" s="9">
         <v>120.74</v>
       </c>
-      <c r="M26" s="54">
+      <c r="M26" s="47">
         <v>-1.73</v>
       </c>
-      <c r="N26" s="61"/>
+      <c r="N26" s="54"/>
       <c r="O26">
         <v>-30.65</v>
       </c>
@@ -2149,62 +2152,62 @@
       <c r="R26">
         <v>-5</v>
       </c>
-      <c r="S26" s="52">
+      <c r="S26" s="45">
         <v>102350</v>
       </c>
-      <c r="T26" s="52">
+      <c r="T26" s="45">
         <v>1.2410000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="42"/>
+      <c r="A27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="3"/>
       <c r="F27" s="10">
         <v>27700</v>
       </c>
       <c r="G27" s="9"/>
-      <c r="H27" s="57"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="61"/>
-      <c r="S27" s="52">
+      <c r="M27" s="47"/>
+      <c r="N27" s="54"/>
+      <c r="S27" s="45">
         <v>7209</v>
       </c>
-      <c r="T27" s="52">
+      <c r="T27" s="45">
         <v>0.191</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="42"/>
+      <c r="A28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="3"/>
       <c r="F28" s="10">
         <v>19300</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="57"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="6"/>
       <c r="J28" s="7"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="61"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="54"/>
       <c r="O28">
         <v>0.86</v>
       </c>
@@ -2217,82 +2220,82 @@
       <c r="R28">
         <v>-2.6</v>
       </c>
-      <c r="S28" s="52">
+      <c r="S28" s="45">
         <v>31949</v>
       </c>
-      <c r="T28" s="52">
+      <c r="T28" s="45">
         <v>561.5</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>39</v>
+      <c r="A29" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <v>26400</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="58"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="6"/>
       <c r="J29" s="11"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="61"/>
-      <c r="S29" s="51">
+      <c r="M29" s="47"/>
+      <c r="N29" s="54"/>
+      <c r="S29" s="44">
         <v>3960</v>
       </c>
-      <c r="T29" s="51">
+      <c r="T29" s="44">
         <v>0.104</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>40</v>
+      <c r="A30" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="42"/>
+        <v>78</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="3"/>
       <c r="F30" s="10">
         <v>27789</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="57"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
         <v>10.76</v>
       </c>
-      <c r="M30" s="54"/>
-      <c r="N30" s="61"/>
-      <c r="S30" s="52">
+      <c r="M30" s="47"/>
+      <c r="N30" s="54"/>
+      <c r="S30" s="45">
         <v>74852</v>
       </c>
-      <c r="T30" s="52">
+      <c r="T30" s="45">
         <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>41</v>
+      <c r="A31" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="27">
+        <v>84</v>
+      </c>
+      <c r="C31" s="23">
         <v>60</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="3">
         <v>35</v>
       </c>
@@ -2302,7 +2305,7 @@
       <c r="G31" s="9">
         <v>99</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="50">
         <v>75.900000000000006</v>
       </c>
       <c r="I31" s="6">
@@ -2317,10 +2320,10 @@
       <c r="L31" s="9">
         <v>1618.61</v>
       </c>
-      <c r="M31" s="54">
+      <c r="M31" s="47">
         <v>3.6</v>
       </c>
-      <c r="N31" s="61">
+      <c r="N31" s="54">
         <v>96</v>
       </c>
       <c r="O31">
@@ -2335,34 +2338,34 @@
       <c r="R31">
         <v>-6</v>
       </c>
-      <c r="S31" s="51">
+      <c r="S31" s="44">
         <v>1220479</v>
       </c>
-      <c r="T31" s="51">
+      <c r="T31" s="44">
         <v>43.57</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>42</v>
+      <c r="A32" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <v>23592</v>
       </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="58"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="6"/>
       <c r="J32" s="11"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="61"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="54"/>
       <c r="P32">
         <v>-0.31</v>
       </c>
@@ -2372,28 +2375,28 @@
       <c r="R32">
         <v>7.3</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="44">
         <v>41430</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T32" s="44">
         <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>43</v>
+      <c r="A33" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31">
+        <v>82</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27">
         <v>36100</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="59"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="6">
         <v>0.53</v>
       </c>
@@ -2404,12 +2407,12 @@
         <v>0.67</v>
       </c>
       <c r="L33" s="13"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="62"/>
-      <c r="S33" s="51">
+      <c r="M33" s="48"/>
+      <c r="N33" s="55"/>
+      <c r="S33" s="44">
         <v>102951</v>
       </c>
-      <c r="T33" s="51">
+      <c r="T33" s="44">
         <v>3.7919999999999998</v>
       </c>
     </row>
@@ -2429,7 +2432,19 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f>CORREL(H4:H33,P4:P33)</f>
+        <v>-0.73738535216701095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f>CORREL(H4:H33,M4:M33)</f>
+        <v>-0.59079242029944679</v>
       </c>
     </row>
   </sheetData>
@@ -2445,13 +2460,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
@@ -2459,30 +2474,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="B1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
     </row>
     <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2497,7 +2512,7 @@
       <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2513,273 +2528,276 @@
         <v>10</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="39" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="44" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="44" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="44" t="s">
+    </row>
+    <row r="23" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+    <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E24" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="G26" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="128" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="G27" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="44"/>
-      <c r="G26" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="G27" s="44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
